--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed2/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.308399999999993</v>
+        <v>-7.185199999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.193</v>
+        <v>-8.619099999999998</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.324199999999998</v>
+        <v>-7.218999999999997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.792199999999992</v>
+        <v>-8.988899999999992</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.31509999999999</v>
+        <v>16.57029999999999</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.1766</v>
+        <v>16.2095</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.7093</v>
+        <v>15.6731</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.2593</v>
+        <v>17.2533</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.1478</v>
+        <v>17.1219</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.8043</v>
+        <v>16.9359</v>
       </c>
     </row>
     <row r="53">
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.244399999999997</v>
+        <v>-6.140499999999998</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.6765</v>
+        <v>16.6945</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.85030000000001</v>
+        <v>16.02740000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.29549999999999</v>
+        <v>-8.096699999999991</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6646</v>
+        <v>16.547</v>
       </c>
     </row>
     <row r="58">
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.366999999999997</v>
+        <v>-8.440099999999999</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.134499999999997</v>
+        <v>-7.101999999999997</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.53740000000001</v>
+        <v>17.4558</v>
       </c>
     </row>
     <row r="74">
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.084599999999996</v>
+        <v>-6.025999999999997</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.763599999999997</v>
+        <v>-8.910199999999996</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.22420000000001</v>
+        <v>17.19380000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.10859999999998</v>
+        <v>16.20139999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.396699999999997</v>
+        <v>-6.355999999999995</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
